--- a/data/trans_dic/P1438_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1438_2023-Habitat-trans_dic.xlsx
@@ -567,10 +567,10 @@
         <v>0.06915781413086775</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.1055959345699643</v>
+        <v>0.1055959345699642</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.08791460570420864</v>
+        <v>0.08791460570420867</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05400500284501276</v>
+        <v>0.05308494347942966</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.09142313222034884</v>
+        <v>0.09114753402960131</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.07723794003356067</v>
+        <v>0.07676354803191553</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09014477992937275</v>
+        <v>0.08977152617324095</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1220375992742214</v>
+        <v>0.1215829635317915</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1010181756706595</v>
+        <v>0.09967156442777918</v>
       </c>
     </row>
     <row r="7">
@@ -622,10 +622,10 @@
         <v>0.04558724899654654</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.08583455685241426</v>
+        <v>0.08583455685241427</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.06591288742784845</v>
+        <v>0.06591288742784847</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03445156757157199</v>
+        <v>0.03441460552811981</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.07381377429692967</v>
+        <v>0.07330724723973932</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05710491894877571</v>
+        <v>0.05709579950103023</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06009607439070864</v>
+        <v>0.05840832223147625</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1000922547970007</v>
+        <v>0.100605332093969</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07560008395219416</v>
+        <v>0.07584198488784265</v>
       </c>
     </row>
     <row r="10">
@@ -677,7 +677,7 @@
         <v>0.03256445706413127</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.07561651449669572</v>
+        <v>0.07561651449669574</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.05424501353509716</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02234702677536428</v>
+        <v>0.02211021203356356</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06096024188290643</v>
+        <v>0.06104125411209767</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04522914090300179</v>
+        <v>0.04465631117150435</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04801161083156979</v>
+        <v>0.04843056320949533</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.09161128352864617</v>
+        <v>0.09256031341736448</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06477383529398735</v>
+        <v>0.06491337655152561</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.04253621571360203</v>
+        <v>0.04253621571360204</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.07854519862152064</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.06163045681676228</v>
+        <v>0.06163045681676229</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03213790901979943</v>
+        <v>0.031497891687728</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06591195473247387</v>
+        <v>0.06577334465169302</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05302078038398805</v>
+        <v>0.0534577017362324</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05477653730318331</v>
+        <v>0.0546490221424762</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.09104803514599921</v>
+        <v>0.09259048726758995</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0705528579892598</v>
+        <v>0.07039124767122001</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.04639482372672283</v>
+        <v>0.04639482372672282</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.08531113403839566</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.040504373267947</v>
+        <v>0.04032425447296011</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.07736388730294527</v>
+        <v>0.07819012130050507</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.06184074404569259</v>
+        <v>0.06166918221837801</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05310143996937209</v>
+        <v>0.05351329065679152</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.09231159527093333</v>
+        <v>0.09292130700815769</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.07146067979480912</v>
+        <v>0.0712123005197273</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>37302</v>
+        <v>36666</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>66988</v>
+        <v>66786</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>109943</v>
+        <v>109268</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>62264</v>
+        <v>62006</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>89420</v>
+        <v>89087</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>143792</v>
+        <v>141876</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>36137</v>
+        <v>36098</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>78995</v>
+        <v>78452</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>121011</v>
+        <v>120992</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>63036</v>
+        <v>61265</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>107117</v>
+        <v>107667</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>160204</v>
+        <v>160717</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>17863</v>
+        <v>17674</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>49433</v>
+        <v>49499</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>72830</v>
+        <v>71908</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>38378</v>
+        <v>38713</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>74288</v>
+        <v>75058</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>104302</v>
+        <v>104527</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>31819</v>
+        <v>31185</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>73665</v>
+        <v>73511</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>111752</v>
+        <v>112673</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>54232</v>
+        <v>54106</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>101758</v>
+        <v>103482</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>148704</v>
+        <v>148363</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>142941</v>
+        <v>142306</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>288679</v>
+        <v>291763</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>448994</v>
+        <v>447748</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>187397</v>
+        <v>188850</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>344456</v>
+        <v>346731</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>518839</v>
+        <v>517036</v>
       </c>
     </row>
     <row r="24">
